--- a/MetaWorldNPT/JavaScripts/depend/dialogify/example/excel/RelateEntity_叙述实体表.xlsx
+++ b/MetaWorldNPT/JavaScripts/depend/dialogify/example/excel/RelateEntity_叙述实体表.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Constant" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId1"/>
+  </externalReferences>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>int</t>
   </si>
@@ -30,6 +34,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>name_trs</t>
+  </si>
+  <si>
     <t>originPainting</t>
   </si>
   <si>
@@ -40,6 +47,9 @@
   </si>
   <si>
     <t>名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVEN_CHANGE 不要更改此列</t>
   </si>
   <si>
     <t>立绘</t>
@@ -61,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -69,6 +79,12 @@
     </font>
     <font>
       <sz val="10.000000"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
     </font>
   </fonts>
@@ -92,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -103,13 +119,19 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -124,6 +146,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D1"/>
+          <cell r="B1"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,10 +669,10 @@
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" style="0" width="10.875"/>
-    <col customWidth="1" min="2" max="2" style="1" width="20.625"/>
-    <col customWidth="1" min="3" max="3" style="0" width="30.625"/>
-    <col customWidth="1" min="4" max="4" style="0" width="10.875"/>
-    <col min="5" max="16384" style="0" width="10.875"/>
+    <col customWidth="1" min="2" max="3" style="1" width="20.625"/>
+    <col customWidth="1" min="4" max="4" style="0" width="30.625"/>
+    <col customWidth="1" min="5" max="5" style="0" width="10.875"/>
+    <col min="6" max="16384" style="0" width="10.875"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1">
@@ -640,10 +682,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -654,25 +699,31 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1"/>
@@ -681,142 +732,829 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B5,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B6,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
+      <c r="C7" s="5" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B7,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
+      <c r="C8" s="5" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B8,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B9,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B10,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
+      <c r="C11" s="5" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B11,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
+      <c r="C12" s="5" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B12,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B13,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B14,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B15,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
+      <c r="C16" s="5" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B16,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
+      <c r="C17" s="5" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B17,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B18,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="C19" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B19,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="C20" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B20,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="C21" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B21,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B22,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B23,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="5"/>
+      <c r="A24" s="8"/>
+      <c r="C24" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B24,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="5"/>
+      <c r="A25" s="8"/>
+      <c r="C25" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B25,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="5"/>
+      <c r="A26" s="8"/>
+      <c r="C26" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B26,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="5"/>
+      <c r="A27" s="8"/>
+      <c r="C27" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B27,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="C28" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B28,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="5"/>
+      <c r="A29" s="8"/>
+      <c r="C29" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B29,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="5"/>
+      <c r="A30" s="8"/>
+      <c r="C30" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B30,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="5"/>
+      <c r="A31" s="8"/>
+      <c r="C31" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B31,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="5"/>
+      <c r="A32" s="8"/>
+      <c r="C32" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B32,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="5"/>
+      <c r="A33" s="8"/>
+      <c r="C33" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B33,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="5"/>
+      <c r="A34" s="8"/>
+      <c r="C34" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B34,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="5"/>
+      <c r="A35" s="8"/>
+      <c r="C35" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B35,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="5"/>
+      <c r="A36" s="8"/>
+      <c r="C36" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B36,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="5"/>
+      <c r="A37" s="8"/>
+      <c r="C37" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B37,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="5"/>
+      <c r="A38" s="8"/>
+      <c r="C38" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B38,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="5"/>
+      <c r="A39" s="8"/>
+      <c r="C39" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B39,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" s="1" customFormat="1"/>
+      <c r="A40" s="8"/>
+      <c r="C40" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B40,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1">
+      <c r="C41" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B41,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" ht="15">
+      <c r="C42" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B42,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="15">
+      <c r="C43" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B43,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="15">
+      <c r="C44" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B44,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="15">
+      <c r="C45" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B45,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" ht="15">
+      <c r="C46" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B46,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" ht="15">
+      <c r="C47" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B47,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" ht="15">
+      <c r="C48" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B48,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" ht="15">
+      <c r="C49" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B49,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" ht="15">
+      <c r="C50" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B50,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" ht="15">
+      <c r="C51" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B51,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" ht="15">
+      <c r="C52" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B52,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" ht="15">
+      <c r="C53" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B53,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" ht="15">
+      <c r="C54" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B54,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" ht="15">
+      <c r="C55" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B55,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" ht="15">
+      <c r="C56" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B56,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" ht="15">
+      <c r="C57" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B57,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" ht="15">
+      <c r="C58" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B58,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" ht="15">
+      <c r="C59" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B59,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" ht="15">
+      <c r="C60" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B60,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" ht="15">
+      <c r="C61" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B61,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" ht="15">
+      <c r="C62" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B62,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" ht="15">
+      <c r="C63" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B63,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" ht="15">
+      <c r="C64" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B64,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" ht="15">
+      <c r="C65" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B65,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" ht="15">
+      <c r="C66" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B66,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" ht="15">
+      <c r="C67" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B67,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" ht="15">
+      <c r="C68" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B68,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" ht="15">
+      <c r="C69" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B69,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" ht="15">
+      <c r="C70" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B70,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" ht="15">
+      <c r="C71" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B71,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" ht="15">
+      <c r="C72" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B72,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" ht="15">
+      <c r="C73" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B73,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" ht="15">
+      <c r="C74" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B74,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" ht="15">
+      <c r="C75" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B75,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" ht="15">
+      <c r="C76" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B76,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" ht="15">
+      <c r="C77" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B77,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" ht="15">
+      <c r="C78" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B78,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" ht="15">
+      <c r="C79" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B79,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" ht="15">
+      <c r="C80" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B80,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" ht="15">
+      <c r="C81" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B81,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" ht="15">
+      <c r="C82" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B82,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" ht="15">
+      <c r="C83" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B83,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" ht="15">
+      <c r="C84" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B84,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" ht="15">
+      <c r="C85" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B85,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" ht="15">
+      <c r="C86" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B86,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" ht="15">
+      <c r="C87" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B87,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" ht="15">
+      <c r="C88" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B88,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" ht="15">
+      <c r="C89" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B89,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" ht="15">
+      <c r="C90" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B90,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" ht="15">
+      <c r="C91" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B91,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" ht="15">
+      <c r="C92" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B92,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" ht="15">
+      <c r="C93" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B93,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" ht="15">
+      <c r="C94" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B94,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" ht="15">
+      <c r="C95" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B95,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" ht="15">
+      <c r="C96" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B96,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" ht="15">
+      <c r="C97" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B97,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" ht="15">
+      <c r="C98" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B98,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" ht="15">
+      <c r="C99" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B99,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" ht="15">
+      <c r="C100" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B100,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" ht="15">
+      <c r="C101" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B101,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" ht="15">
+      <c r="C102" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B102,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" ht="15">
+      <c r="C103" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B103,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" ht="15">
+      <c r="C104" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B104,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" ht="15">
+      <c r="C105" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B105,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" ht="15">
+      <c r="C106" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B106,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" ht="15">
+      <c r="C107" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B107,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" ht="15">
+      <c r="C108" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B108,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" ht="15">
+      <c r="C109" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B109,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" ht="15">
+      <c r="C110" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B110,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" ht="15">
+      <c r="C111" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B111,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" ht="15">
+      <c r="C112" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B112,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" ht="15">
+      <c r="C113" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B113,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" ht="15">
+      <c r="C114" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B114,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" ht="15">
+      <c r="C115" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B115,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" ht="15">
+      <c r="C116" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B116,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" ht="15">
+      <c r="C117" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B117,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" ht="15">
+      <c r="C118" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B118,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" ht="15">
+      <c r="C119" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B119,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" ht="15">
+      <c r="C120" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B120,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" ht="15">
+      <c r="C121" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B121,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" ht="15">
+      <c r="C122" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B122,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" ht="15">
+      <c r="C123" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B123,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" ht="15">
+      <c r="C124" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B124,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" ht="15">
+      <c r="C125" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B125,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" ht="15">
+      <c r="C126" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B126,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" ht="15">
+      <c r="C127" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B127,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" ht="15">
+      <c r="C128" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B128,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" ht="15">
+      <c r="C129" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B129,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" ht="15">
+      <c r="C130" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B130,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
     <row r="131" ht="15">
       <c r="A131">
         <v>127</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131">
+      <c r="B131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="5" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B131,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E131">
         <v>1</v>
       </c>
     </row>
@@ -824,11 +1562,1023 @@
       <c r="A132">
         <v>128</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132">
+      <c r="B132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="5" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B132,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="E132">
         <v>0</v>
+      </c>
+    </row>
+    <row r="133" ht="15">
+      <c r="C133" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B133,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" ht="15">
+      <c r="C134" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B134,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" ht="15">
+      <c r="C135" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B135,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" ht="15">
+      <c r="C136" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B136,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" ht="15">
+      <c r="C137" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B137,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" ht="15">
+      <c r="C138" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B138,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" ht="15">
+      <c r="C139" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B139,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" ht="15">
+      <c r="C140" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B140,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" ht="15">
+      <c r="C141" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B141,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" ht="15">
+      <c r="C142" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B142,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" ht="15">
+      <c r="C143" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B143,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" ht="15">
+      <c r="C144" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B144,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" ht="15">
+      <c r="C145" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B145,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" ht="15">
+      <c r="C146" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B146,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" ht="15">
+      <c r="C147" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B147,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" ht="15">
+      <c r="C148" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B148,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" ht="15">
+      <c r="C149" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B149,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" ht="15">
+      <c r="C150" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B150,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" ht="15">
+      <c r="C151" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B151,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" ht="15">
+      <c r="C152" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B152,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" ht="15">
+      <c r="C153" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B153,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" ht="15">
+      <c r="C154" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B154,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" ht="15">
+      <c r="C155" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B155,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" ht="15">
+      <c r="C156" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B156,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" ht="15">
+      <c r="C157" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B157,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" ht="15">
+      <c r="C158" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B158,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" ht="15">
+      <c r="C159" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B159,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" ht="15">
+      <c r="C160" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B160,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" ht="15">
+      <c r="C161" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B161,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" ht="15">
+      <c r="C162" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B162,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" ht="15">
+      <c r="C163" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B163,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" ht="15">
+      <c r="C164" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B164,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" ht="15">
+      <c r="C165" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B165,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" ht="15">
+      <c r="C166" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B166,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" ht="15">
+      <c r="C167" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B167,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" ht="15">
+      <c r="C168" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B168,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" ht="15">
+      <c r="C169" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B169,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" ht="15">
+      <c r="C170" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B170,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" ht="15">
+      <c r="C171" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B171,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" ht="15">
+      <c r="C172" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B172,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" ht="15">
+      <c r="C173" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B173,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" ht="15">
+      <c r="C174" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B174,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" ht="15">
+      <c r="C175" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B175,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" ht="15">
+      <c r="C176" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B176,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" ht="15">
+      <c r="C177" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B177,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" ht="15">
+      <c r="C178" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B178,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" ht="15">
+      <c r="C179" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B179,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" ht="15">
+      <c r="C180" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B180,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" ht="15">
+      <c r="C181" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B181,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" ht="15">
+      <c r="C182" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B182,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" ht="15">
+      <c r="C183" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B183,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" ht="15">
+      <c r="C184" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B184,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" ht="15">
+      <c r="C185" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B185,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" ht="15">
+      <c r="C186" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B186,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" ht="15">
+      <c r="C187" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B187,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" ht="15">
+      <c r="C188" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B188,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" ht="15">
+      <c r="C189" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B189,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" ht="15">
+      <c r="C190" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B190,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" ht="15">
+      <c r="C191" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B191,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" ht="15">
+      <c r="C192" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B192,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" ht="15">
+      <c r="C193" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B193,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" ht="15">
+      <c r="C194" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B194,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" ht="15">
+      <c r="C195" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B195,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" ht="15">
+      <c r="C196" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B196,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" ht="15">
+      <c r="C197" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B197,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" ht="15">
+      <c r="C198" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B198,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" ht="15">
+      <c r="C199" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B199,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" ht="15">
+      <c r="C200" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B200,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" ht="15">
+      <c r="C201" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B201,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" ht="15">
+      <c r="C202" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B202,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" ht="15">
+      <c r="C203" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B203,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" ht="15">
+      <c r="C204" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B204,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" ht="15">
+      <c r="C205" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B205,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" ht="15">
+      <c r="C206" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B206,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" ht="15">
+      <c r="C207" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B207,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" ht="15">
+      <c r="C208" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B208,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" ht="15">
+      <c r="C209" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B209,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" ht="15">
+      <c r="C210" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B210,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" ht="15">
+      <c r="C211" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B211,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" ht="15">
+      <c r="C212" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B212,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" ht="15">
+      <c r="C213" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B213,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" ht="15">
+      <c r="C214" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B214,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" ht="15">
+      <c r="C215" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B215,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" ht="15">
+      <c r="C216" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B216,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" ht="15">
+      <c r="C217" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B217,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" ht="15">
+      <c r="C218" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B218,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" ht="15">
+      <c r="C219" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B219,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" ht="15">
+      <c r="C220" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B220,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" ht="15">
+      <c r="C221" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B221,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" ht="15">
+      <c r="C222" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B222,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" ht="15">
+      <c r="C223" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B223,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" ht="15">
+      <c r="C224" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B224,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" ht="15">
+      <c r="C225" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B225,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" ht="15">
+      <c r="C226" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B226,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" ht="15">
+      <c r="C227" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B227,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" ht="15">
+      <c r="C228" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B228,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" ht="15">
+      <c r="C229" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B229,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" ht="15">
+      <c r="C230" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B230,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" ht="15">
+      <c r="C231" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B231,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" ht="15">
+      <c r="C232" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B232,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" ht="15">
+      <c r="C233" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B233,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" ht="15">
+      <c r="C234" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B234,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" ht="15">
+      <c r="C235" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B235,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" ht="15">
+      <c r="C236" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B236,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" ht="15">
+      <c r="C237" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B237,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" ht="15">
+      <c r="C238" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B238,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" ht="15">
+      <c r="C239" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B239,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" ht="15">
+      <c r="C240" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B240,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" ht="15">
+      <c r="C241" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B241,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" ht="15">
+      <c r="C242" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B242,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" ht="15">
+      <c r="C243" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B243,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" ht="15">
+      <c r="C244" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B244,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" ht="15">
+      <c r="C245" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B245,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" ht="15">
+      <c r="C246" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B246,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" ht="15">
+      <c r="C247" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B247,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" ht="15">
+      <c r="C248" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B248,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" ht="15">
+      <c r="C249" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B249,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" ht="15">
+      <c r="C250" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B250,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" ht="15">
+      <c r="C251" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B251,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" ht="15">
+      <c r="C252" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B252,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" ht="15">
+      <c r="C253" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B253,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" ht="15">
+      <c r="C254" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B254,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" ht="15">
+      <c r="C255" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B255,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" ht="15">
+      <c r="C256" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B256,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" ht="15">
+      <c r="C257" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B257,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" ht="15">
+      <c r="C258" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B258,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" ht="15">
+      <c r="C259" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B259,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" ht="15">
+      <c r="C260" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B260,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" ht="15">
+      <c r="C261" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B261,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" ht="15">
+      <c r="C262" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B262,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" ht="15">
+      <c r="C263" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B263,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" ht="15">
+      <c r="C264" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B264,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" ht="15">
+      <c r="C265" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B265,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" ht="15">
+      <c r="C266" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B266,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" ht="15">
+      <c r="C267" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B267,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" ht="15">
+      <c r="C268" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B268,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" ht="15">
+      <c r="C269" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B269,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" ht="15">
+      <c r="C270" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B270,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" ht="15">
+      <c r="C271" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B271,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" ht="15">
+      <c r="C272" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B272,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" ht="15">
+      <c r="C273" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B273,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" ht="15">
+      <c r="C274" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B274,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" ht="15">
+      <c r="C275" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B275,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" ht="15">
+      <c r="C276" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B276,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" ht="15">
+      <c r="C277" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B277,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" ht="15">
+      <c r="C278" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B278,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" ht="15">
+      <c r="C279" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B279,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" ht="15">
+      <c r="C280" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B280,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" ht="15">
+      <c r="C281" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B281,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" ht="15">
+      <c r="C282" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B282,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" ht="15">
+      <c r="C283" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B283,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" ht="15">
+      <c r="C284" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B284,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" ht="15">
+      <c r="C285" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B285,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" ht="15">
+      <c r="C286" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B286,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" ht="15">
+      <c r="C287" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B287,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" ht="15">
+      <c r="C288" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B288,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" ht="15">
+      <c r="C289" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B289,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" ht="15">
+      <c r="C290" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B290,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" ht="15">
+      <c r="C291" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B291,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" ht="15">
+      <c r="C292" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B292,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" ht="15">
+      <c r="C293" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B293,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" ht="15">
+      <c r="C294" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B294,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" ht="15">
+      <c r="C295" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B295,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" ht="15">
+      <c r="C296" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B296,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" ht="15">
+      <c r="C297" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B297,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" ht="15">
+      <c r="C298" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B298,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" ht="15">
+      <c r="C299" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B299,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" ht="15">
+      <c r="C300" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B300,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -840,4 +2590,20 @@
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/MetaWorldNPT/JavaScripts/depend/dialogify/example/excel/RelateEntity_叙述实体表.xlsx
+++ b/MetaWorldNPT/JavaScripts/depend/dialogify/example/excel/RelateEntity_叙述实体表.xlsx
@@ -49,7 +49,7 @@
     <t>名称</t>
   </si>
   <si>
-    <t xml:space="preserve">NEVEN_CHANGE 不要更改此列</t>
+    <t xml:space="preserve">VIEW_ONLY 不要更改或使用此列</t>
   </si>
   <si>
     <t>立绘</t>
@@ -108,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -121,12 +121,6 @@
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -157,7 +151,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
+        <row r="3">
           <cell r="D1"/>
           <cell r="B1"/>
         </row>
@@ -734,7 +728,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B5,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
@@ -744,8 +738,8 @@
     </row>
     <row r="6" s="1" customFormat="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="str">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B6,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
@@ -754,7 +748,7 @@
     <row r="7" s="1" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B7,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
@@ -762,23 +756,23 @@
     <row r="8" s="1" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B8,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" s="1" customFormat="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="str">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B9,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" s="1" customFormat="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="str">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B10,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
@@ -786,7 +780,7 @@
     <row r="11" s="1" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B11,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
@@ -794,31 +788,31 @@
     <row r="12" s="1" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B12,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="str">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B13,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="str">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B14,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="str">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B15,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
@@ -826,7 +820,7 @@
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B16,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
@@ -834,170 +828,170 @@
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B17,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="str">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B18,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="8"/>
+      <c r="A19" s="6"/>
       <c r="C19" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B19,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="8"/>
+      <c r="A20" s="6"/>
       <c r="C20" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B20,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="6"/>
       <c r="C21" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B21,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7" t="str">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B22,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="str">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B23,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="6"/>
       <c r="C24" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B24,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="6"/>
       <c r="C25" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B25,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
       <c r="C26" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B26,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="8"/>
+      <c r="A27" s="6"/>
       <c r="C27" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B27,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
       <c r="C28" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B28,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
       <c r="C29" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B29,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="8"/>
+      <c r="A30" s="6"/>
       <c r="C30" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B30,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="6"/>
       <c r="C31" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B31,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="8"/>
+      <c r="A32" s="6"/>
       <c r="C32" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B32,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="6"/>
       <c r="C33" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B33,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="6"/>
       <c r="C34" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B34,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="6"/>
       <c r="C35" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B35,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="6"/>
       <c r="C36" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B36,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="6"/>
       <c r="C37" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B37,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="6"/>
       <c r="C38" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B38,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="6"/>
       <c r="C39" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B39,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="6"/>
       <c r="C40" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B40,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -1550,7 +1544,7 @@
       <c r="B131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C131" s="5" t="str">
+      <c r="C131" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B131,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
@@ -1565,7 +1559,7 @@
       <c r="B132" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C132" s="5" t="str">
+      <c r="C132" s="1" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B132,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
